--- a/CompetitionTestCase.xlsx
+++ b/CompetitionTestCase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reshm\Desktop\Intership Task 2\CompetitionMars\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33950A91-28C0-408B-8FC5-B55DB49F025B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBADE20-949B-47B8-AB16-5831F01B2DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{27D2D9D5-730B-484E-9E64-7EAD025B2ACC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{27D2D9D5-730B-484E-9E64-7EAD025B2ACC}"/>
   </bookViews>
   <sheets>
     <sheet name="Education" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="126">
   <si>
     <t>Test Scenario ID</t>
   </si>
@@ -87,12 +87,6 @@
     <t>User should be able to view profile info containing "languages","skills", "Education", "Certification" tabs.</t>
   </si>
   <si>
-    <t xml:space="preserve"> In the languages tab click on "Add New".</t>
-  </si>
-  <si>
-    <t>A field containing text box "Add Language" and also a drop down "Choose language level" should be enabled.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Validate the addition of language feature </t>
   </si>
   <si>
@@ -123,10 +117,6 @@
   </si>
   <si>
     <t xml:space="preserve">Destructive testing </t>
-  </si>
-  <si>
-    <t>Enter the desired language with any random variable with 1000 characters and Choose language level.
-Click on "Add".</t>
   </si>
   <si>
     <t>The system should block the addition of language with message "The maximum length of the character is 50".</t>
@@ -267,11 +257,6 @@
 Degree	- Bachelor of Information Technology
 Graduation Year - 2001
 Click on "Add".</t>
-  </si>
-  <si>
-    <t>Click on the "Edit" button for Education "M-Tech".
-Change the value to same as in step 5
-Click on "update"</t>
   </si>
   <si>
     <t xml:space="preserve">User with profile created in portal - http://localhost:5000/,  with no Education entry  added to their Profile </t>
@@ -572,6 +557,24 @@
   </si>
   <si>
     <t>Enter desired value for CertificationName ,year and keep all other fields as empty.</t>
+  </si>
+  <si>
+    <t>Enter the following
+Country - New Zealand	
+University- Auckland University 
+Title	- B.Tech
+Degree	- Bachelor of Information Technology
+Graduation Year - 2005
+Click on "Add".</t>
+  </si>
+  <si>
+    <t>Click on the "Edit" button for Education "M-Tech".
+Change the value to same as in step 4
+Click on "update"</t>
+  </si>
+  <si>
+    <t>Enter the desired degree and college name with any random variable with 500 characters and Choose other values.
+Click on "Add".</t>
   </si>
 </sst>
 </file>
@@ -909,6 +912,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -924,32 +948,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1267,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B83A6D-EB5E-4337-BF35-6E3974FC2113}">
   <dimension ref="A3:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="D59" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="E59" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1285,7 +1288,7 @@
   <sheetData>
     <row r="3" spans="1:10" ht="87" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1321,20 +1324,20 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="55" t="s">
-        <v>29</v>
+      <c r="B9" s="52" t="s">
+        <v>26</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F9" s="12">
         <v>1</v>
@@ -1349,8 +1352,8 @@
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="59"/>
-      <c r="B10" s="55"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="52"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="11"/>
@@ -1367,8 +1370,8 @@
       <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="59"/>
-      <c r="B11" s="55"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="15"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19"/>
@@ -1376,17 +1379,17 @@
         <v>3</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
     </row>
     <row r="12" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="59"/>
-      <c r="B12" s="55"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="22"/>
       <c r="D12" s="23"/>
       <c r="E12" s="22"/>
@@ -1394,17 +1397,17 @@
         <v>4</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="59"/>
-      <c r="B13" s="55"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="22"/>
       <c r="D13" s="23"/>
       <c r="E13" s="22"/>
@@ -1429,20 +1432,20 @@
       <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="55" t="s">
-        <v>18</v>
+      <c r="B15" s="52" t="s">
+        <v>16</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="12">
         <v>1</v>
@@ -1457,8 +1460,8 @@
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="59"/>
-      <c r="B16" s="55"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="11"/>
@@ -1475,8 +1478,8 @@
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="55"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="15"/>
       <c r="D17" s="18"/>
       <c r="E17" s="19"/>
@@ -1484,17 +1487,17 @@
         <v>3</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
     </row>
     <row r="18" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="59"/>
-      <c r="B18" s="55"/>
+      <c r="A18" s="51"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="22"/>
       <c r="D18" s="23"/>
       <c r="E18" s="22"/>
@@ -1502,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -1523,20 +1526,20 @@
       <c r="J19" s="26"/>
     </row>
     <row r="20" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F20" s="12">
         <v>1</v>
@@ -1551,8 +1554,8 @@
       <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="59"/>
-      <c r="B21" s="55"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="15"/>
       <c r="D21" s="16"/>
       <c r="E21" s="11"/>
@@ -1569,8 +1572,8 @@
       <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="59"/>
-      <c r="B22" s="55"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="15"/>
       <c r="D22" s="18"/>
       <c r="E22" s="19"/>
@@ -1578,17 +1581,17 @@
         <v>3</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I22" s="21"/>
       <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="59"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="52"/>
       <c r="C23" s="22"/>
       <c r="D23" s="23"/>
       <c r="E23" s="22"/>
@@ -1596,10 +1599,10 @@
         <v>4</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I23" s="25"/>
       <c r="J23" s="25"/>
@@ -1617,20 +1620,20 @@
       <c r="J24" s="26"/>
     </row>
     <row r="25" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="61" t="s">
+      <c r="A25" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="55" t="s">
-        <v>39</v>
+      <c r="B25" s="52" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F25" s="12">
         <v>1</v>
@@ -1645,8 +1648,8 @@
       <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="59"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="52"/>
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
       <c r="E26" s="11"/>
@@ -1663,8 +1666,8 @@
       <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A27" s="59"/>
-      <c r="B27" s="55"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
       <c r="C27" s="15"/>
       <c r="D27" s="18"/>
       <c r="E27" s="19"/>
@@ -1672,17 +1675,17 @@
         <v>3</v>
       </c>
       <c r="G27" s="19" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
     </row>
     <row r="28" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
-      <c r="B28" s="55"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="22"/>
       <c r="D28" s="23"/>
       <c r="E28" s="22"/>
@@ -1690,10 +1693,10 @@
         <v>4</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="25"/>
@@ -1711,20 +1714,20 @@
       <c r="J29" s="26"/>
     </row>
     <row r="30" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>48</v>
+      <c r="A30" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="52" t="s">
+        <v>45</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D30" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F30" s="12">
         <v>1</v>
@@ -1739,8 +1742,8 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="54"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="52"/>
       <c r="C31" s="29"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -1757,8 +1760,8 @@
       <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.35">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="52"/>
       <c r="C32" s="29"/>
       <c r="D32" s="30"/>
       <c r="E32" s="15"/>
@@ -1766,10 +1769,10 @@
         <v>3</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H32" s="32" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="13"/>
@@ -1787,20 +1790,20 @@
       <c r="J33" s="26"/>
     </row>
     <row r="34" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="54" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="55" t="s">
-        <v>52</v>
+      <c r="A34" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="52" t="s">
+        <v>49</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F34" s="12">
         <v>1</v>
@@ -1815,8 +1818,8 @@
       <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="52"/>
       <c r="C35" s="29"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -1827,14 +1830,14 @@
         <v>14</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I35" s="13"/>
       <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="29"/>
       <c r="D36" s="30"/>
       <c r="E36" s="15"/>
@@ -1842,10 +1845,10 @@
         <v>3</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H36" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I36" s="13"/>
       <c r="J36" s="13"/>
@@ -1863,20 +1866,20 @@
       <c r="J37" s="26"/>
     </row>
     <row r="38" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="55" t="s">
-        <v>23</v>
+      <c r="A38" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="B38" s="52" t="s">
+        <v>21</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F38" s="12">
         <v>1</v>
@@ -1891,8 +1894,8 @@
       <c r="J38" s="14"/>
     </row>
     <row r="39" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="59"/>
-      <c r="B39" s="55"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="15"/>
       <c r="D39" s="16"/>
       <c r="E39" s="11"/>
@@ -1909,8 +1912,8 @@
       <c r="J39" s="13"/>
     </row>
     <row r="40" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A40" s="59"/>
-      <c r="B40" s="55"/>
+      <c r="A40" s="51"/>
+      <c r="B40" s="52"/>
       <c r="C40" s="15"/>
       <c r="D40" s="18"/>
       <c r="E40" s="19"/>
@@ -1918,17 +1921,17 @@
         <v>3</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="21"/>
     </row>
     <row r="41" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="59"/>
-      <c r="B41" s="55"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="52"/>
       <c r="C41" s="22"/>
       <c r="D41" s="23"/>
       <c r="E41" s="22"/>
@@ -1936,17 +1939,17 @@
         <v>4</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="25"/>
     </row>
     <row r="42" spans="1:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="A42" s="59"/>
-      <c r="B42" s="55"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="52"/>
       <c r="C42" s="22"/>
       <c r="D42" s="23"/>
       <c r="E42" s="22"/>
@@ -1954,17 +1957,17 @@
         <v>5</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H42" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="25"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A43" s="60"/>
-      <c r="B43" s="55"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="52"/>
       <c r="C43" s="22"/>
       <c r="D43" s="23"/>
       <c r="E43" s="22"/>
@@ -1987,20 +1990,20 @@
       <c r="J44" s="26"/>
     </row>
     <row r="45" spans="1:10" ht="51" x14ac:dyDescent="0.35">
-      <c r="A45" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="51" t="s">
-        <v>70</v>
+      <c r="A45" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F45" s="12">
         <v>1</v>
@@ -2015,8 +2018,8 @@
       <c r="J45" s="33"/>
     </row>
     <row r="46" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="57"/>
-      <c r="B46" s="52"/>
+      <c r="A46" s="62"/>
+      <c r="B46" s="59"/>
       <c r="C46" s="29"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
@@ -2033,26 +2036,26 @@
       <c r="J46" s="30"/>
     </row>
     <row r="47" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A47" s="57"/>
-      <c r="B47" s="52"/>
+      <c r="A47" s="62"/>
+      <c r="B47" s="59"/>
       <c r="C47" s="29"/>
       <c r="D47" s="30"/>
       <c r="E47" s="15"/>
       <c r="F47" s="20">
         <v>3</v>
       </c>
-      <c r="G47" s="62" t="s">
-        <v>30</v>
+      <c r="G47" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
     </row>
     <row r="48" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="57"/>
-      <c r="B48" s="52"/>
+      <c r="A48" s="62"/>
+      <c r="B48" s="59"/>
       <c r="C48" s="34"/>
       <c r="D48" s="25"/>
       <c r="E48" s="22"/>
@@ -2060,17 +2063,17 @@
         <v>4</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I48" s="25"/>
       <c r="J48" s="25"/>
     </row>
     <row r="49" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="57"/>
-      <c r="B49" s="52"/>
+      <c r="A49" s="62"/>
+      <c r="B49" s="59"/>
       <c r="C49" s="34"/>
       <c r="D49" s="25"/>
       <c r="E49" s="22"/>
@@ -2078,17 +2081,17 @@
         <v>5</v>
       </c>
       <c r="G49" s="22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H49" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I49" s="25"/>
       <c r="J49" s="25"/>
     </row>
     <row r="50" spans="1:10" ht="116" x14ac:dyDescent="0.35">
-      <c r="A50" s="57"/>
-      <c r="B50" s="52"/>
+      <c r="A50" s="62"/>
+      <c r="B50" s="59"/>
       <c r="C50" s="34"/>
       <c r="D50" s="25"/>
       <c r="E50" s="22"/>
@@ -2096,10 +2099,10 @@
         <v>6</v>
       </c>
       <c r="G50" s="22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H50" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="25"/>
@@ -2117,20 +2120,20 @@
       <c r="J51" s="37"/>
     </row>
     <row r="52" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="56" t="s">
-        <v>22</v>
-      </c>
-      <c r="B52" s="51" t="s">
-        <v>70</v>
+      <c r="A52" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B52" s="58" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D52" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F52" s="12">
         <v>1</v>
@@ -2145,8 +2148,8 @@
       <c r="J52" s="33"/>
     </row>
     <row r="53" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="57"/>
-      <c r="B53" s="52"/>
+      <c r="A53" s="62"/>
+      <c r="B53" s="59"/>
       <c r="C53" s="29"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
@@ -2163,26 +2166,26 @@
       <c r="J53" s="30"/>
     </row>
     <row r="54" spans="1:10" ht="26" x14ac:dyDescent="0.35">
-      <c r="A54" s="57"/>
-      <c r="B54" s="52"/>
+      <c r="A54" s="62"/>
+      <c r="B54" s="59"/>
       <c r="C54" s="29"/>
       <c r="D54" s="30"/>
       <c r="E54" s="15"/>
       <c r="F54" s="20">
         <v>3</v>
       </c>
-      <c r="G54" s="62" t="s">
-        <v>30</v>
+      <c r="G54" s="49" t="s">
+        <v>27</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I54" s="30"/>
       <c r="J54" s="30"/>
     </row>
     <row r="55" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="57"/>
-      <c r="B55" s="52"/>
+      <c r="A55" s="62"/>
+      <c r="B55" s="59"/>
       <c r="C55" s="34"/>
       <c r="D55" s="25"/>
       <c r="E55" s="22"/>
@@ -2190,17 +2193,17 @@
         <v>4</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I55" s="25"/>
       <c r="J55" s="25"/>
     </row>
     <row r="56" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="57"/>
-      <c r="B56" s="52"/>
+      <c r="A56" s="62"/>
+      <c r="B56" s="59"/>
       <c r="C56" s="34"/>
       <c r="D56" s="25"/>
       <c r="E56" s="22"/>
@@ -2208,17 +2211,17 @@
         <v>5</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I56" s="25"/>
       <c r="J56" s="25"/>
     </row>
     <row r="57" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="57"/>
-      <c r="B57" s="52"/>
+      <c r="A57" s="62"/>
+      <c r="B57" s="59"/>
       <c r="C57" s="34"/>
       <c r="D57" s="25"/>
       <c r="E57" s="22"/>
@@ -2226,17 +2229,17 @@
         <v>6</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I57" s="25"/>
       <c r="J57" s="25"/>
     </row>
     <row r="58" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="57"/>
-      <c r="B58" s="52"/>
+      <c r="A58" s="62"/>
+      <c r="B58" s="59"/>
       <c r="C58" s="34"/>
       <c r="D58" s="25"/>
       <c r="E58" s="22"/>
@@ -2244,17 +2247,17 @@
         <v>7</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="H58" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
     </row>
     <row r="59" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="57"/>
-      <c r="B59" s="52"/>
+      <c r="A59" s="62"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="34"/>
       <c r="D59" s="25"/>
       <c r="E59" s="22"/>
@@ -2262,17 +2265,17 @@
         <v>8</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H59" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I59" s="25"/>
       <c r="J59" s="25"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A60" s="57"/>
-      <c r="B60" s="52"/>
+      <c r="A60" s="62"/>
+      <c r="B60" s="59"/>
       <c r="C60" s="34"/>
       <c r="D60" s="25"/>
       <c r="E60" s="22"/>
@@ -2283,8 +2286,8 @@
       <c r="J60" s="25"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A61" s="57"/>
-      <c r="B61" s="52"/>
+      <c r="A61" s="62"/>
+      <c r="B61" s="59"/>
       <c r="C61" s="34"/>
       <c r="D61" s="25"/>
       <c r="E61" s="22"/>
@@ -2301,20 +2304,20 @@
       <c r="H62" s="27"/>
     </row>
     <row r="63" spans="1:10" ht="51" x14ac:dyDescent="0.35">
-      <c r="A63" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="51" t="s">
-        <v>26</v>
+      <c r="A63" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F63" s="12">
         <v>1</v>
@@ -2327,8 +2330,8 @@
       </c>
     </row>
     <row r="64" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="50"/>
-      <c r="B64" s="52"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="59"/>
       <c r="C64" s="15"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
@@ -2342,9 +2345,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="50"/>
-      <c r="B65" s="52"/>
+    <row r="65" spans="1:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="A65" s="57"/>
+      <c r="B65" s="59"/>
       <c r="C65" s="15"/>
       <c r="D65" s="43"/>
       <c r="E65" s="44"/>
@@ -2352,15 +2355,15 @@
         <v>3</v>
       </c>
       <c r="G65" s="19" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H65" s="19" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="50"/>
-      <c r="B66" s="52"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="59"/>
       <c r="C66" s="15"/>
       <c r="D66" s="43"/>
       <c r="E66" s="44"/>
@@ -2368,15 +2371,15 @@
         <v>4</v>
       </c>
       <c r="G66" s="22" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A67" s="50"/>
-      <c r="B67" s="53"/>
+      <c r="A67" s="57"/>
+      <c r="B67" s="60"/>
       <c r="C67" s="22"/>
       <c r="D67" s="25"/>
       <c r="E67" s="22"/>
@@ -2395,20 +2398,20 @@
       <c r="J68" s="26"/>
     </row>
     <row r="69" spans="1:10" ht="51" x14ac:dyDescent="0.35">
-      <c r="A69" s="54" t="s">
+      <c r="A69" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="55" t="s">
-        <v>26</v>
-      </c>
       <c r="C69" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D69" s="10" t="s">
         <v>11</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F69" s="12">
         <v>1</v>
@@ -2423,8 +2426,8 @@
       <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="54"/>
-      <c r="B70" s="55"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="52"/>
       <c r="C70" s="29"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
@@ -2435,14 +2438,14 @@
         <v>14</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I70" s="13"/>
       <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="54"/>
-      <c r="B71" s="55"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="52"/>
       <c r="C71" s="29"/>
       <c r="D71" s="30"/>
       <c r="E71" s="15"/>
@@ -2450,16 +2453,30 @@
         <v>3</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H71" s="48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A63:A67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="A45:A50"/>
+    <mergeCell ref="B45:B50"/>
+    <mergeCell ref="A52:A61"/>
+    <mergeCell ref="B52:B61"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A38:A43"/>
+    <mergeCell ref="B38:B43"/>
     <mergeCell ref="A25:A28"/>
     <mergeCell ref="B25:B28"/>
     <mergeCell ref="A9:A13"/>
@@ -2468,20 +2485,6 @@
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="A38:A43"/>
-    <mergeCell ref="B38:B43"/>
-    <mergeCell ref="A63:A67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="A69:A71"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="A45:A50"/>
-    <mergeCell ref="B45:B50"/>
-    <mergeCell ref="A52:A61"/>
-    <mergeCell ref="B52:B61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2491,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28305CE8-99BE-431A-A721-FD5FC190BEAF}">
   <dimension ref="A3:I76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="E64" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2508,7 +2511,7 @@
   <sheetData>
     <row r="3" spans="1:9" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -2541,17 +2544,17 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="55" t="s">
-        <v>82</v>
+      <c r="A9" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E9" s="12">
         <v>1</v>
@@ -2566,7 +2569,7 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="55"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
       <c r="D10" s="11"/>
@@ -2577,13 +2580,13 @@
         <v>14</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="55"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="15"/>
       <c r="C11" s="18"/>
       <c r="D11" s="19"/>
@@ -2591,16 +2594,16 @@
         <v>3</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
     </row>
     <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="55"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="22"/>
       <c r="C12" s="23"/>
       <c r="D12" s="22"/>
@@ -2608,16 +2611,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="55"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="22"/>
       <c r="C13" s="23"/>
       <c r="D13" s="22"/>
@@ -2641,17 +2644,17 @@
       <c r="I14" s="26"/>
     </row>
     <row r="15" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
-        <v>76</v>
+      <c r="A15" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E15" s="12">
         <v>1</v>
@@ -2666,7 +2669,7 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="55"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="15"/>
       <c r="C16" s="16"/>
       <c r="D16" s="11"/>
@@ -2677,13 +2680,13 @@
         <v>14</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
     </row>
     <row r="17" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A17" s="55"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="15"/>
       <c r="C17" s="18"/>
       <c r="D17" s="19"/>
@@ -2691,16 +2694,16 @@
         <v>3</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="22"/>
       <c r="C18" s="23"/>
       <c r="D18" s="22"/>
@@ -2708,10 +2711,10 @@
         <v>4</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
@@ -2728,17 +2731,17 @@
       <c r="I19" s="26"/>
     </row>
     <row r="20" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="55" t="s">
-        <v>76</v>
+      <c r="A20" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E20" s="12">
         <v>1</v>
@@ -2753,7 +2756,7 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="55"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
       <c r="D21" s="11"/>
@@ -2764,13 +2767,13 @@
         <v>14</v>
       </c>
       <c r="G21" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A22" s="55"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="15"/>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
@@ -2778,16 +2781,16 @@
         <v>3</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H22" s="21"/>
       <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="55"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="15"/>
       <c r="C23" s="46"/>
       <c r="D23" s="32"/>
@@ -2795,16 +2798,16 @@
         <v>4</v>
       </c>
       <c r="F23" s="22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="55"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="15"/>
       <c r="C24" s="46"/>
       <c r="D24" s="32"/>
@@ -2812,16 +2815,16 @@
         <v>5</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="55"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="15"/>
       <c r="C25" s="46"/>
       <c r="D25" s="32"/>
@@ -2829,16 +2832,16 @@
         <v>6</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H25" s="46"/>
       <c r="I25" s="46"/>
     </row>
     <row r="26" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="55"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="22"/>
       <c r="C26" s="23"/>
       <c r="D26" s="22"/>
@@ -2846,10 +2849,10 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
@@ -2866,17 +2869,17 @@
       <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="55" t="s">
-        <v>76</v>
+      <c r="A28" s="52" t="s">
+        <v>72</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E28" s="12">
         <v>1</v>
@@ -2891,7 +2894,7 @@
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="55"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
       <c r="D29" s="11"/>
@@ -2902,13 +2905,13 @@
         <v>14</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A30" s="55"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="15"/>
       <c r="C30" s="18"/>
       <c r="D30" s="19"/>
@@ -2916,16 +2919,16 @@
         <v>3</v>
       </c>
       <c r="F30" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
     <row r="31" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="55"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="22"/>
       <c r="C31" s="23"/>
       <c r="D31" s="22"/>
@@ -2933,10 +2936,10 @@
         <v>4</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
@@ -2953,17 +2956,17 @@
       <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="55" t="s">
-        <v>92</v>
+      <c r="A33" s="52" t="s">
+        <v>88</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E33" s="12">
         <v>1</v>
@@ -2978,7 +2981,7 @@
       <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="55"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="29"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
@@ -2989,13 +2992,13 @@
         <v>14</v>
       </c>
       <c r="G34" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" ht="51" x14ac:dyDescent="0.35">
-      <c r="A35" s="55"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="29"/>
       <c r="C35" s="30"/>
       <c r="D35" s="15"/>
@@ -3003,10 +3006,10 @@
         <v>3</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
@@ -3023,17 +3026,17 @@
       <c r="I36" s="26"/>
     </row>
     <row r="37" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="55" t="s">
-        <v>94</v>
+      <c r="A37" s="52" t="s">
+        <v>90</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E37" s="12">
         <v>1</v>
@@ -3048,7 +3051,7 @@
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="55"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="29"/>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
@@ -3059,13 +3062,13 @@
         <v>14</v>
       </c>
       <c r="G38" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A39" s="55"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="29"/>
       <c r="C39" s="30"/>
       <c r="D39" s="15"/>
@@ -3073,10 +3076,10 @@
         <v>3</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
@@ -3093,17 +3096,17 @@
       <c r="I40" s="26"/>
     </row>
     <row r="41" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="55" t="s">
-        <v>67</v>
+      <c r="A41" s="52" t="s">
+        <v>63</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E41" s="12">
         <v>1</v>
@@ -3118,7 +3121,7 @@
       <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="55"/>
+      <c r="A42" s="52"/>
       <c r="B42" s="15"/>
       <c r="C42" s="16"/>
       <c r="D42" s="11"/>
@@ -3129,13 +3132,13 @@
         <v>14</v>
       </c>
       <c r="G42" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H42" s="11"/>
       <c r="I42" s="13"/>
     </row>
     <row r="43" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A43" s="55"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="15"/>
       <c r="C43" s="18"/>
       <c r="D43" s="19"/>
@@ -3143,16 +3146,16 @@
         <v>3</v>
       </c>
       <c r="F43" s="19" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="55"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="22"/>
       <c r="C44" s="23"/>
       <c r="D44" s="22"/>
@@ -3160,16 +3163,16 @@
         <v>4</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H44" s="15"/>
       <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="58" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="22"/>
       <c r="C45" s="23"/>
       <c r="D45" s="22"/>
@@ -3177,16 +3180,16 @@
         <v>5</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A46" s="55"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="22"/>
       <c r="C46" s="23"/>
       <c r="D46" s="22"/>
@@ -3208,17 +3211,17 @@
       <c r="I47" s="26"/>
     </row>
     <row r="48" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="51" t="s">
-        <v>67</v>
+      <c r="A48" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="B48" s="28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C48" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E48" s="12">
         <v>1</v>
@@ -3233,7 +3236,7 @@
       <c r="I48" s="33"/>
     </row>
     <row r="49" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="52"/>
+      <c r="A49" s="59"/>
       <c r="B49" s="29"/>
       <c r="C49" s="15"/>
       <c r="D49" s="15"/>
@@ -3244,13 +3247,13 @@
         <v>14</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H49" s="30"/>
       <c r="I49" s="30"/>
     </row>
     <row r="50" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A50" s="52"/>
+      <c r="A50" s="59"/>
       <c r="B50" s="29"/>
       <c r="C50" s="30"/>
       <c r="D50" s="15"/>
@@ -3258,16 +3261,16 @@
         <v>3</v>
       </c>
       <c r="F50" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
     </row>
     <row r="51" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="52"/>
+      <c r="A51" s="59"/>
       <c r="B51" s="29"/>
       <c r="C51" s="30"/>
       <c r="D51" s="15"/>
@@ -3275,16 +3278,16 @@
         <v>4</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
     </row>
     <row r="52" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="52"/>
+      <c r="A52" s="59"/>
       <c r="B52" s="34"/>
       <c r="C52" s="25"/>
       <c r="D52" s="22"/>
@@ -3292,16 +3295,16 @@
         <v>5</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="52"/>
+      <c r="A53" s="59"/>
       <c r="B53" s="34"/>
       <c r="C53" s="25"/>
       <c r="D53" s="22"/>
@@ -3309,10 +3312,10 @@
         <v>6</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
@@ -3329,17 +3332,17 @@
       <c r="I54" s="37"/>
     </row>
     <row r="55" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="51" t="s">
-        <v>67</v>
+      <c r="A55" s="58" t="s">
+        <v>63</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E55" s="12">
         <v>1</v>
@@ -3354,7 +3357,7 @@
       <c r="I55" s="33"/>
     </row>
     <row r="56" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="52"/>
+      <c r="A56" s="59"/>
       <c r="B56" s="29"/>
       <c r="C56" s="15"/>
       <c r="D56" s="15"/>
@@ -3365,13 +3368,13 @@
         <v>14</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H56" s="30"/>
       <c r="I56" s="30"/>
     </row>
     <row r="57" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A57" s="52"/>
+      <c r="A57" s="59"/>
       <c r="B57" s="29"/>
       <c r="C57" s="30"/>
       <c r="D57" s="15"/>
@@ -3379,16 +3382,16 @@
         <v>3</v>
       </c>
       <c r="F57" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G57" s="19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H57" s="30"/>
       <c r="I57" s="30"/>
     </row>
     <row r="58" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="52"/>
+      <c r="A58" s="59"/>
       <c r="B58" s="34"/>
       <c r="C58" s="25"/>
       <c r="D58" s="22"/>
@@ -3396,16 +3399,16 @@
         <v>4</v>
       </c>
       <c r="F58" s="22" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="52"/>
+      <c r="A59" s="59"/>
       <c r="B59" s="34"/>
       <c r="C59" s="25"/>
       <c r="D59" s="22"/>
@@ -3413,16 +3416,16 @@
         <v>5</v>
       </c>
       <c r="F59" s="22" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="52"/>
+      <c r="A60" s="59"/>
       <c r="B60" s="34"/>
       <c r="C60" s="25"/>
       <c r="D60" s="22"/>
@@ -3430,16 +3433,16 @@
         <v>6</v>
       </c>
       <c r="F60" s="22" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="52"/>
+      <c r="A61" s="59"/>
       <c r="B61" s="34"/>
       <c r="C61" s="25"/>
       <c r="D61" s="22"/>
@@ -3447,16 +3450,16 @@
         <v>7</v>
       </c>
       <c r="F61" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" ht="26" x14ac:dyDescent="0.35">
-      <c r="A62" s="52"/>
+      <c r="A62" s="59"/>
       <c r="B62" s="34"/>
       <c r="C62" s="25"/>
       <c r="D62" s="22"/>
@@ -3464,16 +3467,16 @@
         <v>8</v>
       </c>
       <c r="F62" s="9" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A63" s="52"/>
+      <c r="A63" s="59"/>
       <c r="B63" s="34"/>
       <c r="C63" s="25"/>
       <c r="D63" s="22"/>
@@ -3484,7 +3487,7 @@
       <c r="I63" s="25"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A64" s="52"/>
+      <c r="A64" s="59"/>
       <c r="B64" s="34"/>
       <c r="C64" s="25"/>
       <c r="D64" s="22"/>
@@ -3506,17 +3509,17 @@
       <c r="I65" s="26"/>
     </row>
     <row r="66" spans="1:9" ht="51" x14ac:dyDescent="0.35">
-      <c r="A66" s="51" t="s">
-        <v>26</v>
+      <c r="A66" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E66" s="12">
         <v>1</v>
@@ -3529,7 +3532,7 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="52"/>
+      <c r="A67" s="59"/>
       <c r="B67" s="15"/>
       <c r="C67" s="15"/>
       <c r="D67" s="15"/>
@@ -3540,11 +3543,11 @@
         <v>14</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="52"/>
+      <c r="A68" s="59"/>
       <c r="B68" s="15"/>
       <c r="C68" s="43"/>
       <c r="D68" s="44"/>
@@ -3552,14 +3555,14 @@
         <v>3</v>
       </c>
       <c r="F68" s="19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G68" s="19" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="52"/>
+      <c r="A69" s="59"/>
       <c r="B69" s="15"/>
       <c r="C69" s="43"/>
       <c r="D69" s="44"/>
@@ -3567,14 +3570,14 @@
         <v>4</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A70" s="53"/>
+      <c r="A70" s="60"/>
       <c r="B70" s="22"/>
       <c r="C70" s="25"/>
       <c r="D70" s="22"/>
@@ -3592,17 +3595,17 @@
       <c r="I71" s="26"/>
     </row>
     <row r="72" spans="1:9" ht="51" x14ac:dyDescent="0.35">
-      <c r="A72" s="51" t="s">
-        <v>26</v>
+      <c r="A72" s="58" t="s">
+        <v>24</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C72" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E72" s="12">
         <v>1</v>
@@ -3615,7 +3618,7 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="52"/>
+      <c r="A73" s="59"/>
       <c r="B73" s="15"/>
       <c r="C73" s="15"/>
       <c r="D73" s="15"/>
@@ -3626,11 +3629,11 @@
         <v>14</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="52"/>
+      <c r="A74" s="59"/>
       <c r="B74" s="15"/>
       <c r="C74" s="30"/>
       <c r="D74" s="15"/>
@@ -3638,14 +3641,14 @@
         <v>3</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G74" s="48" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A75" s="52"/>
+      <c r="A75" s="59"/>
       <c r="B75" s="15"/>
       <c r="C75" s="43"/>
       <c r="D75" s="44"/>
@@ -3654,7 +3657,7 @@
       <c r="G75" s="9"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A76" s="53"/>
+      <c r="A76" s="60"/>
       <c r="B76" s="22"/>
       <c r="C76" s="25"/>
       <c r="D76" s="22"/>
@@ -3662,17 +3665,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A41:A46"/>
+    <mergeCell ref="A48:A53"/>
+    <mergeCell ref="A55:A64"/>
+    <mergeCell ref="A66:A70"/>
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A9:A13"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A20:A26"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A33:A35"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A41:A46"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A55:A64"/>
-    <mergeCell ref="A66:A70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
